--- a/biology/Histoire de la zoologie et de la botanique/Dmitri_Kojevnikov/Dmitri_Kojevnikov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dmitri_Kojevnikov/Dmitri_Kojevnikov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dimitri Alexandrovitch Kojevnikov (en russe : Дмитрий Александрович Кожевников), né en 1858 à Kozlov (gouvernement de Tambov) et mort le 23 avril 1882 à Menton[1], est un botaniste russe[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dimitri Alexandrovitch Kojevnikov (en russe : Дмитрий Александрович Кожевников), né en 1858 à Kozlov (gouvernement de Tambov) et mort le 23 avril 1882 à Menton, est un botaniste russe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans la famille d'un marchand aisé de la première guilde de Kozlov, Alexandre Stepanovitch Kojevnikov, bourgeois d'honneur héréditaire, époux de Natalia Vassilievna. Il a un frère: Vladimir, futur historien, et une sœur, Zinaïda. Devenu veuf, Alexandre Stepanovitch se remarie avec Maria Grigorievna Taranovskaïa qui donne naissance en 1866 à un fils, Grigori, futur zoologiste.
 Dimitri Kojevnikov étudie au lycée classique N°4 de Moscou, puis entre au département des sciences naturelles de la faculté de physique et de mathématiques de l'université de Moscou qu'il termine en 1878 dont il devient le premier candidat post-gradué. Il présente sa thèse de doctorat de troisième cycle à l'université d'Odessa en 1882 qui porte sur la structure anatomique des couvertures florales pétaloformes. Outre cette thèse, il publie en 1876 à Moscou Beiträge zur Flora des Tambowischen Gouvernements (Contributions à la flore du gouvernement de Tambov) et Sur l'histoire du développement de la fleur dans la famille des Araceae deux ans plus tard à Moscou.
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les taxons suivant lui sont dédiés:
 Carex koshewnikowii Litv.
